--- a/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -459,7 +459,7 @@
     <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.3.23</t>
+    <t>http://jpfhir.jp/fhir/core/mhlw/IdSystem/MedicalOrganizationID</t>
   </si>
   <si>
     <t>Identifier.system</t>
